--- a/Статистика.xlsx
+++ b/Статистика.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="78">
   <si>
     <t>m</t>
   </si>
@@ -2548,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4115,7 +4115,10 @@
       <c r="J40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="3"/>
+      <c r="K40" s="3">
+        <f>SUM(K4:K39)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="10"/>
       <c r="N40" s="3"/>
@@ -4341,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4469,8 +4472,8 @@
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
+      <c r="K5" s="1">
+        <v>0.1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -4509,8 +4512,8 @@
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
+      <c r="K6" s="1">
+        <v>0.15</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -4549,8 +4552,8 @@
       <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
+      <c r="K7" s="1">
+        <v>0.4</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -4589,8 +4592,8 @@
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
+      <c r="K8" s="1">
+        <v>0.1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -4629,8 +4632,8 @@
       <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>37</v>
+      <c r="K9" s="1">
+        <v>0.3</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -4669,8 +4672,8 @@
       <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
+      <c r="K10" s="1">
+        <v>0.35</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -4709,8 +4712,8 @@
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>26</v>
+      <c r="K11" s="1">
+        <v>0.15</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -4749,8 +4752,8 @@
       <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
+      <c r="K12" s="1">
+        <v>0.4</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -4789,8 +4792,8 @@
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>28</v>
+      <c r="K13" s="1">
+        <v>0.45</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -4818,7 +4821,10 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <f>SUM(K4:K13)</f>
+        <v>2.4</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="10"/>
       <c r="N14" s="3"/>
